--- a/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-01/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -10906,13 +10906,13 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="D206" t="n">
         <v>420</v>
       </c>
       <c r="E206" t="n">
-        <v>7450212</v>
+        <v>7460212</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
@@ -21310,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>11172</v>
+        <v>11173</v>
       </c>
       <c r="D410" t="n">
         <v>2278</v>
       </c>
       <c r="E410" t="n">
-        <v>61116024</v>
+        <v>61118824</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45875</v>
+        <v>45876</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>185149928</v>
+        <v>185157584</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D424" t="n">
         <v>280</v>
       </c>
       <c r="E424" t="n">
-        <v>78373886</v>
+        <v>78454298</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61091</v>
+        <v>61093</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221092273</v>
+        <v>221101829</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163577</v>
+        <v>163583</v>
       </c>
       <c r="D434" t="n">
         <v>25456</v>
       </c>
       <c r="E434" t="n">
-        <v>711167085</v>
+        <v>711237515</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94604</v>
+        <v>94613</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>652914972</v>
+        <v>652967346</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30955</v>
+        <v>30962</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>595382108</v>
+        <v>595609229</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10249</v>
+        <v>10253</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>481801626</v>
+        <v>482084866</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53187</v>
+        <v>53188</v>
       </c>
       <c r="D446" t="n">
         <v>8886</v>
       </c>
       <c r="E446" t="n">
-        <v>117884058</v>
+        <v>117894058</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -26512,13 +26512,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D512" t="n">
         <v>56</v>
       </c>
       <c r="E512" t="n">
-        <v>9916195</v>
+        <v>10119042</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -33397,13 +33397,13 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D647" t="n">
         <v>296</v>
       </c>
       <c r="E647" t="n">
-        <v>25519871</v>
+        <v>25545382</v>
       </c>
       <c r="F647" t="inlineStr">
         <is>
@@ -39772,13 +39772,13 @@
         </is>
       </c>
       <c r="C772" t="n">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="D772" t="n">
         <v>1162</v>
       </c>
       <c r="E772" t="n">
-        <v>18283227</v>
+        <v>18284472</v>
       </c>
       <c r="F772" t="inlineStr">
         <is>
@@ -42832,13 +42832,13 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D832" t="n">
         <v>4</v>
       </c>
       <c r="E832" t="n">
-        <v>3433833</v>
+        <v>3650321</v>
       </c>
       <c r="F832" t="inlineStr">
         <is>
